--- a/biology/Médecine/Vaccination_contre_la_Covid-19_au_Kazakhstan/Vaccination_contre_la_Covid-19_au_Kazakhstan.xlsx
+++ b/biology/Médecine/Vaccination_contre_la_Covid-19_au_Kazakhstan/Vaccination_contre_la_Covid-19_au_Kazakhstan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vaccination contre la COVID-19 au Kazakhstan est une campagne  d'immunisation contre le SARS-CoV-2, le virus qui provoque la maladie de coronavirus 2019 (COVID-19), en réponse à la pandémie en cours.
 </t>
@@ -511,9 +523,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kazakhstan a créé son propre vaccin COVID-19, QazCovid-in, développé par l'Institut de recherche pour les problèmes de sécurité biologique[1]. Le 7 avril 2021, le ministre de la Santé, Alexey Tsoi, a annoncé que le gouvernement kazakh avait demandé 4 millions de doses du vaccin russe Sputnik V, en plus de 2 millions de doses reçues précédemment en 2021 dans le cadre d'un programme de vaccination en cours avec QazCovid-in[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kazakhstan a créé son propre vaccin COVID-19, QazCovid-in, développé par l'Institut de recherche pour les problèmes de sécurité biologique. Le 7 avril 2021, le ministre de la Santé, Alexey Tsoi, a annoncé que le gouvernement kazakh avait demandé 4 millions de doses du vaccin russe Sputnik V, en plus de 2 millions de doses reçues précédemment en 2021 dans le cadre d'un programme de vaccination en cours avec QazCovid-in.
 </t>
         </is>
       </c>
